--- a/2025/30 day chart challenge 2025 prompts.xlsx
+++ b/2025/30 day chart challenge 2025 prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregerskjerulf/Data/r/30 Day Chart Challenge/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7516D0AA-EB63-3F42-8D3C-9CC1B383B925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D52F6A-8A15-C448-8830-7FA5A72F31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{23871FE4-64AE-FB46-BB91-89CB42A6DF9B}"/>
+    <workbookView xWindow="2020" yWindow="1660" windowWidth="28040" windowHeight="17440" xr2:uid="{23871FE4-64AE-FB46-BB91-89CB42A6DF9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Category</t>
   </si>
@@ -141,6 +141,33 @@
   </si>
   <si>
     <t>Uncertainties</t>
+  </si>
+  <si>
+    <t>Change in educational attainment over time?</t>
+  </si>
+  <si>
+    <t>Income in log scale by education level</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Monochrome</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Inclusion</t>
+  </si>
+  <si>
+    <t>Extraterrestrial</t>
+  </si>
+  <si>
+    <t>National Geographic</t>
+  </si>
+  <si>
+    <t>Percentage of Danes with degrees by: field? Region? Age?</t>
   </si>
 </sst>
 </file>
@@ -495,7 +522,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B31"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,6 +556,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -540,6 +570,9 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -777,6 +810,9 @@
       <c r="C24" t="s">
         <v>18</v>
       </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -799,6 +835,9 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -807,6 +846,9 @@
       <c r="B27" t="s">
         <v>35</v>
       </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -815,6 +857,9 @@
       <c r="B28" t="s">
         <v>35</v>
       </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -823,6 +868,9 @@
       <c r="B29" t="s">
         <v>35</v>
       </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -831,6 +879,9 @@
       <c r="B30" t="s">
         <v>35</v>
       </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -838,6 +889,9 @@
       </c>
       <c r="B31" t="s">
         <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
